--- a/CG_PRO/static/paticipent_data.xlsx
+++ b/CG_PRO/static/paticipent_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Desktop\Live_wires_project\Certificate-Generator\front-end\User_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FAAB4-9713-4CDF-90E9-AE7831927177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00B845A-2ABB-4B16-BC86-8B01871DB0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{F3FFB216-D2B7-473B-A9D3-DB5864791AE9}"/>
+    <workbookView xWindow="5430" yWindow="2970" windowWidth="15375" windowHeight="7875" xr2:uid="{F3FFB216-D2B7-473B-A9D3-DB5864791AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Register number</t>
-  </si>
-  <si>
     <t>evant</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>siva123@gmail.com</t>
+  </si>
+  <si>
+    <t>Register_number</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,55 +439,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1212</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2112</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1212</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
